--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_12_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_12_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1399262.770522941</v>
+        <v>1396255.995215701</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767344</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>18.92112911249622</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>33.93991247395533</v>
-      </c>
-      <c r="G2" t="n">
-        <v>15.21022140383137</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>4.097100052852174</v>
@@ -707,10 +707,10 @@
         <v>33.93991247395533</v>
       </c>
       <c r="S2" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>10.58695345037629</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -747,16 +747,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,10 +789,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>29.89427490705985</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>33.93991247395533</v>
+        <v>29.89427490705984</v>
       </c>
     </row>
     <row r="4">
@@ -814,14 +814,14 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>12.44627538834367</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>17.44799951871617</v>
@@ -862,13 +862,13 @@
         <v>33.93991247395533</v>
       </c>
       <c r="R4" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>12.44627538834367</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>18.73217250539946</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.16194852731947</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>38.48106384277808</v>
-      </c>
-      <c r="G5" t="n">
-        <v>38.48106384277808</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>38.48106384277808</v>
       </c>
       <c r="S5" t="n">
-        <v>33.89412103271894</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>33.89412103271894</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>33.89412103271894</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>18.96187038700693</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>18.96187038700693</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>233.0884733349126</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>171.2925813255324</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>233.088473334912</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>57.3464320873908</v>
+        <v>13.13971234192074</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>127.0858615800615</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>13.99598790422672</v>
+        <v>13.99598790422633</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>233.088473334912</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>233.088473334912</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>233.0884733349126</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>233.0884733349126</v>
       </c>
     </row>
     <row r="9">
@@ -1212,25 +1212,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>101.0581646981455</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>49.55029117291586</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,25 +1260,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>67.5127228284981</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8652425745828</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>218.4464114488573</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.0207207305559</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>24.76189512393819</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.916113964298674</v>
+        <v>4.916113964298432</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>126.9118714125459</v>
+        <v>23.05953034217073</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>146.4990606167712</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>288.7511433632822</v>
       </c>
       <c r="I11" t="n">
-        <v>19.5300720134498</v>
+        <v>19.53007201344974</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>96.15636898111889</v>
+        <v>96.15636898111885</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.949422691779</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>223.3018963951246</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,10 +1464,10 @@
         <v>134.6934939670195</v>
       </c>
       <c r="H12" t="n">
-        <v>86.64179915749276</v>
+        <v>86.64179915749274</v>
       </c>
       <c r="I12" t="n">
-        <v>8.282546271489934</v>
+        <v>8.282546271489906</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>19.53773391150382</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>165.7692889308208</v>
       </c>
       <c r="H13" t="n">
-        <v>142.4743248871677</v>
+        <v>78.18156948512139</v>
       </c>
       <c r="I13" t="n">
-        <v>88.63818461247371</v>
+        <v>88.63818461247368</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>77.39811087628546</v>
+        <v>77.39811087628541</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.2985930389547</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.4529121465557</v>
       </c>
       <c r="U13" t="n">
         <v>286.1978462422561</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.32106446353045</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>319.4395745411795</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1780,10 +1780,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>77.40780811157403</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>153.903654888888</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1847,10 +1847,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>304.3915154833915</v>
       </c>
       <c r="E17" t="n">
-        <v>331.6388439349723</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>99.11361516863765</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>23.94516103140316</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.338488358459</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081959</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T20" t="n">
-        <v>199.1970568374742</v>
+        <v>148.9055307001835</v>
       </c>
       <c r="U20" t="n">
         <v>250.9088959876463</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>319.4395745411795</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,7 +2245,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,10 +2254,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108353</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S22" t="n">
-        <v>91.49947537140632</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>232.7530166571848</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>23.1099832571722</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>150.4550614441521</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>30.97191586387523</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>30.65104903283448</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>123.7971820797035</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>94.5970333621318</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.594095449513844</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>119.6760079449691</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>115.2707447515121</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788180001</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>243.2577348836416</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>158.0416127628555</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,19 +3952,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>250.7811435429991</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605715775</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,13 +4189,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>245.8796921214426</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>56.50027777633954</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="C2" t="n">
-        <v>56.50027777633954</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="D2" t="n">
-        <v>56.50027777633954</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="E2" t="n">
-        <v>56.50027777633954</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="F2" t="n">
-        <v>22.21753790365739</v>
+        <v>60.24866940125354</v>
       </c>
       <c r="G2" t="n">
-        <v>6.853677899787311</v>
+        <v>41.13641777246947</v>
       </c>
       <c r="H2" t="n">
-        <v>6.853677899787311</v>
+        <v>41.13641777246947</v>
       </c>
       <c r="I2" t="n">
         <v>6.853677899787311</v>
@@ -4331,16 +4331,16 @@
         <v>2.715192997916426</v>
       </c>
       <c r="K2" t="n">
-        <v>2.715192997916426</v>
+        <v>36.31570634713221</v>
       </c>
       <c r="L2" t="n">
-        <v>2.715192997916426</v>
+        <v>69.91621969634798</v>
       </c>
       <c r="M2" t="n">
-        <v>36.31570634713221</v>
+        <v>103.5167330455638</v>
       </c>
       <c r="N2" t="n">
-        <v>69.91621969634798</v>
+        <v>103.5167330455638</v>
       </c>
       <c r="O2" t="n">
         <v>103.5167330455638</v>
@@ -4355,25 +4355,25 @@
         <v>101.4769100231392</v>
       </c>
       <c r="S2" t="n">
-        <v>67.19417015045701</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="T2" t="n">
-        <v>56.50027777633954</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="U2" t="n">
-        <v>56.50027777633954</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="V2" t="n">
-        <v>56.50027777633954</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="W2" t="n">
-        <v>56.50027777633954</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="X2" t="n">
-        <v>56.50027777633954</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="Y2" t="n">
-        <v>56.50027777633954</v>
+        <v>101.4769100231392</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.715192997916426</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="C3" t="n">
-        <v>2.715192997916426</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="D3" t="n">
-        <v>2.715192997916426</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="E3" t="n">
-        <v>2.715192997916426</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="F3" t="n">
-        <v>2.715192997916426</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="G3" t="n">
-        <v>2.715192997916426</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="H3" t="n">
-        <v>2.715192997916426</v>
+        <v>36.99793287059858</v>
       </c>
       <c r="I3" t="n">
         <v>2.715192997916426</v>
@@ -4413,16 +4413,16 @@
         <v>36.31570634713221</v>
       </c>
       <c r="L3" t="n">
-        <v>69.91621969634798</v>
+        <v>36.31570634713221</v>
       </c>
       <c r="M3" t="n">
-        <v>69.91621969634798</v>
+        <v>36.31570634713221</v>
       </c>
       <c r="N3" t="n">
-        <v>69.91621969634798</v>
+        <v>68.55862319738975</v>
       </c>
       <c r="O3" t="n">
-        <v>69.91621969634798</v>
+        <v>68.55862319738975</v>
       </c>
       <c r="P3" t="n">
         <v>102.1591365466055</v>
@@ -4437,22 +4437,22 @@
         <v>135.7596498958213</v>
       </c>
       <c r="T3" t="n">
-        <v>101.4769100231392</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="U3" t="n">
-        <v>67.19417015045701</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="V3" t="n">
-        <v>67.19417015045701</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="W3" t="n">
-        <v>67.19417015045701</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="X3" t="n">
-        <v>36.99793287059858</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.715192997916426</v>
+        <v>105.5634126159629</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32.91143027777485</v>
+        <v>88.90491468137789</v>
       </c>
       <c r="C4" t="n">
-        <v>32.91143027777485</v>
+        <v>88.90491468137789</v>
       </c>
       <c r="D4" t="n">
-        <v>32.91143027777485</v>
+        <v>54.62217480869573</v>
       </c>
       <c r="E4" t="n">
-        <v>32.91143027777485</v>
+        <v>54.62217480869573</v>
       </c>
       <c r="F4" t="n">
-        <v>32.91143027777485</v>
+        <v>54.62217480869573</v>
       </c>
       <c r="G4" t="n">
-        <v>32.91143027777485</v>
+        <v>54.62217480869573</v>
       </c>
       <c r="H4" t="n">
-        <v>32.91143027777485</v>
+        <v>20.33943493601357</v>
       </c>
       <c r="I4" t="n">
-        <v>32.91143027777485</v>
+        <v>20.33943493601357</v>
       </c>
       <c r="J4" t="n">
         <v>20.33943493601357</v>
@@ -4510,28 +4510,28 @@
         <v>101.4769100231392</v>
       </c>
       <c r="R4" t="n">
-        <v>67.19417015045701</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="S4" t="n">
-        <v>67.19417015045701</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="T4" t="n">
-        <v>67.19417015045701</v>
+        <v>88.90491468137789</v>
       </c>
       <c r="U4" t="n">
-        <v>67.19417015045701</v>
+        <v>88.90491468137789</v>
       </c>
       <c r="V4" t="n">
-        <v>67.19417015045701</v>
+        <v>88.90491468137789</v>
       </c>
       <c r="W4" t="n">
-        <v>67.19417015045701</v>
+        <v>88.90491468137789</v>
       </c>
       <c r="X4" t="n">
-        <v>67.19417015045701</v>
+        <v>88.90491468137789</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.19417015045701</v>
+        <v>88.90491468137789</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80.81800802212544</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="C5" t="n">
-        <v>80.81800802212544</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="D5" t="n">
-        <v>80.81800802212544</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="E5" t="n">
-        <v>80.81800802212544</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="F5" t="n">
+        <v>57.26334608731877</v>
+      </c>
+      <c r="G5" t="n">
         <v>41.94824656477385</v>
       </c>
-      <c r="G5" t="n">
-        <v>3.078485107422247</v>
-      </c>
       <c r="H5" t="n">
-        <v>3.078485107422247</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="I5" t="n">
         <v>3.078485107422247</v>
@@ -4568,22 +4568,22 @@
         <v>3.078485107422247</v>
       </c>
       <c r="K5" t="n">
-        <v>3.078485107422247</v>
+        <v>41.17473831177255</v>
       </c>
       <c r="L5" t="n">
-        <v>3.078485107422247</v>
+        <v>41.17473831177255</v>
       </c>
       <c r="M5" t="n">
-        <v>34.47469744057084</v>
+        <v>41.17473831177255</v>
       </c>
       <c r="N5" t="n">
-        <v>72.57095064492114</v>
+        <v>77.73174896241173</v>
       </c>
       <c r="O5" t="n">
-        <v>110.6672038492714</v>
+        <v>115.828002166762</v>
       </c>
       <c r="P5" t="n">
-        <v>148.7634570536217</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9242553711123</v>
@@ -4592,25 +4592,25 @@
         <v>115.0544939137607</v>
       </c>
       <c r="S5" t="n">
-        <v>80.81800802212544</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="T5" t="n">
-        <v>80.81800802212544</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="U5" t="n">
-        <v>80.81800802212544</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="V5" t="n">
-        <v>80.81800802212544</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="W5" t="n">
-        <v>80.81800802212544</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="X5" t="n">
-        <v>80.81800802212544</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="Y5" t="n">
-        <v>80.81800802212544</v>
+        <v>76.18473245640914</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.078485107422247</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="C6" t="n">
-        <v>3.078485107422247</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="D6" t="n">
-        <v>3.078485107422247</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="E6" t="n">
-        <v>3.078485107422247</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="F6" t="n">
-        <v>3.078485107422247</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="G6" t="n">
         <v>3.078485107422247</v>
@@ -4644,19 +4644,19 @@
         <v>3.078485107422247</v>
       </c>
       <c r="J6" t="n">
-        <v>3.078485107422247</v>
+        <v>9.385105424419159</v>
       </c>
       <c r="K6" t="n">
-        <v>41.17473831177255</v>
+        <v>47.48135862876946</v>
       </c>
       <c r="L6" t="n">
-        <v>79.27099151612285</v>
+        <v>85.57761183311976</v>
       </c>
       <c r="M6" t="n">
-        <v>79.27099151612285</v>
+        <v>115.828002166762</v>
       </c>
       <c r="N6" t="n">
-        <v>79.27099151612285</v>
+        <v>115.828002166762</v>
       </c>
       <c r="O6" t="n">
         <v>115.828002166762</v>
@@ -4668,28 +4668,28 @@
         <v>153.9242553711123</v>
       </c>
       <c r="R6" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="S6" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="T6" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="U6" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="V6" t="n">
-        <v>119.687769479477</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="W6" t="n">
-        <v>80.81800802212544</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="X6" t="n">
-        <v>41.94824656477385</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.078485107422247</v>
+        <v>115.0544939137607</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.16156656773741</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="C7" t="n">
-        <v>18.16156656773741</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="D7" t="n">
-        <v>18.16156656773741</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="E7" t="n">
-        <v>18.16156656773741</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="F7" t="n">
-        <v>18.16156656773741</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="G7" t="n">
-        <v>18.16156656773741</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="H7" t="n">
-        <v>18.16156656773741</v>
+        <v>57.03132802508901</v>
       </c>
       <c r="I7" t="n">
         <v>18.16156656773741</v>
@@ -4750,25 +4750,25 @@
         <v>115.0544939137607</v>
       </c>
       <c r="S7" t="n">
-        <v>95.90108948244061</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="T7" t="n">
-        <v>57.03132802508901</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="U7" t="n">
-        <v>57.03132802508901</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="V7" t="n">
-        <v>57.03132802508901</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="W7" t="n">
-        <v>57.03132802508901</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="X7" t="n">
-        <v>18.16156656773741</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.16156656773741</v>
+        <v>115.0544939137607</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>447.3307271032331</v>
+        <v>211.887824744737</v>
       </c>
       <c r="C8" t="n">
-        <v>447.3307271032331</v>
+        <v>38.86501532500733</v>
       </c>
       <c r="D8" t="n">
-        <v>447.3307271032331</v>
+        <v>38.86501532500733</v>
       </c>
       <c r="E8" t="n">
-        <v>211.8878247447361</v>
+        <v>38.86501532500733</v>
       </c>
       <c r="F8" t="n">
-        <v>204.9423239955327</v>
+        <v>31.91951457580386</v>
       </c>
       <c r="G8" t="n">
-        <v>147.0166350183702</v>
+        <v>18.64707786679301</v>
       </c>
       <c r="H8" t="n">
-        <v>147.0166350183702</v>
+        <v>18.64707786679301</v>
       </c>
       <c r="I8" t="n">
-        <v>18.64707786679296</v>
+        <v>18.64707786679301</v>
       </c>
       <c r="J8" t="n">
-        <v>21.15984960251999</v>
+        <v>188.5654986228736</v>
       </c>
       <c r="K8" t="n">
-        <v>75.66436131147549</v>
+        <v>301.7092558337129</v>
       </c>
       <c r="L8" t="n">
-        <v>180.183789562984</v>
+        <v>406.2286840852224</v>
       </c>
       <c r="M8" t="n">
-        <v>328.1512296746882</v>
+        <v>554.1961241969277</v>
       </c>
       <c r="N8" t="n">
-        <v>483.1267460414286</v>
+        <v>709.1716405636693</v>
       </c>
       <c r="O8" t="n">
-        <v>616.130470310836</v>
+        <v>842.1753648330777</v>
       </c>
       <c r="P8" t="n">
-        <v>846.8880589123988</v>
+        <v>921.1899654881481</v>
       </c>
       <c r="Q8" t="n">
-        <v>932.3538933396478</v>
+        <v>932.3538933396503</v>
       </c>
       <c r="R8" t="n">
-        <v>918.2165318202269</v>
+        <v>918.2165318202298</v>
       </c>
       <c r="S8" t="n">
-        <v>918.2165318202269</v>
+        <v>918.2165318202298</v>
       </c>
       <c r="T8" t="n">
-        <v>918.2165318202269</v>
+        <v>918.2165318202298</v>
       </c>
       <c r="U8" t="n">
-        <v>918.2165318202269</v>
+        <v>918.2165318202298</v>
       </c>
       <c r="V8" t="n">
-        <v>682.77362946173</v>
+        <v>918.2165318202298</v>
       </c>
       <c r="W8" t="n">
-        <v>447.3307271032331</v>
+        <v>918.2165318202298</v>
       </c>
       <c r="X8" t="n">
-        <v>447.3307271032331</v>
+        <v>682.7736294617322</v>
       </c>
       <c r="Y8" t="n">
-        <v>447.3307271032331</v>
+        <v>447.3307271032346</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>193.10010714792</v>
+        <v>476.548844250476</v>
       </c>
       <c r="C9" t="n">
-        <v>18.64707786679296</v>
+        <v>476.548844250476</v>
       </c>
       <c r="D9" t="n">
-        <v>18.64707786679296</v>
+        <v>476.548844250476</v>
       </c>
       <c r="E9" t="n">
-        <v>18.64707786679296</v>
+        <v>317.3113892450205</v>
       </c>
       <c r="F9" t="n">
-        <v>18.64707786679296</v>
+        <v>170.7768312719055</v>
       </c>
       <c r="G9" t="n">
-        <v>18.64707786679296</v>
+        <v>170.7768312719055</v>
       </c>
       <c r="H9" t="n">
-        <v>18.64707786679296</v>
+        <v>68.69787703135449</v>
       </c>
       <c r="I9" t="n">
-        <v>18.64707786679296</v>
+        <v>18.64707786679301</v>
       </c>
       <c r="J9" t="n">
-        <v>18.64707786679296</v>
+        <v>126.1559455283947</v>
       </c>
       <c r="K9" t="n">
-        <v>67.19711493332763</v>
+        <v>174.7059825949299</v>
       </c>
       <c r="L9" t="n">
-        <v>178.8011723711448</v>
+        <v>286.3100400327477</v>
       </c>
       <c r="M9" t="n">
-        <v>331.1592556650533</v>
+        <v>435.9035792116349</v>
       </c>
       <c r="N9" t="n">
-        <v>499.1207356122837</v>
+        <v>603.8650591588663</v>
       </c>
       <c r="O9" t="n">
-        <v>630.5528806267047</v>
+        <v>735.297204173288</v>
       </c>
       <c r="P9" t="n">
-        <v>716.7056980200857</v>
+        <v>821.4500215666696</v>
       </c>
       <c r="Q9" t="n">
-        <v>932.3538933396478</v>
+        <v>932.3538933396503</v>
       </c>
       <c r="R9" t="n">
-        <v>932.3538933396478</v>
+        <v>932.3538933396503</v>
       </c>
       <c r="S9" t="n">
-        <v>864.1592238159124</v>
+        <v>932.3538933396503</v>
       </c>
       <c r="T9" t="n">
-        <v>864.1592238159124</v>
+        <v>932.3538933396503</v>
       </c>
       <c r="U9" t="n">
-        <v>636.0125141446166</v>
+        <v>932.3538933396503</v>
       </c>
       <c r="V9" t="n">
-        <v>400.8604059128739</v>
+        <v>697.2017851079077</v>
       </c>
       <c r="W9" t="n">
-        <v>400.8604059128739</v>
+        <v>476.548844250476</v>
       </c>
       <c r="X9" t="n">
-        <v>400.8604059128739</v>
+        <v>476.548844250476</v>
       </c>
       <c r="Y9" t="n">
-        <v>193.10010714792</v>
+        <v>476.548844250476</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>168.7637172791287</v>
+        <v>676.1061158694419</v>
       </c>
       <c r="C10" t="n">
-        <v>168.7637172791287</v>
+        <v>507.169932941535</v>
       </c>
       <c r="D10" t="n">
-        <v>18.64707786679296</v>
+        <v>507.169932941535</v>
       </c>
       <c r="E10" t="n">
-        <v>18.64707786679296</v>
+        <v>359.2568393591418</v>
       </c>
       <c r="F10" t="n">
-        <v>18.64707786679296</v>
+        <v>212.3668918612315</v>
       </c>
       <c r="G10" t="n">
-        <v>18.64707786679296</v>
+        <v>43.65909314349825</v>
       </c>
       <c r="H10" t="n">
-        <v>18.64707786679296</v>
+        <v>43.65909314349825</v>
       </c>
       <c r="I10" t="n">
-        <v>18.64707786679296</v>
+        <v>43.65909314349825</v>
       </c>
       <c r="J10" t="n">
-        <v>18.64707786679296</v>
+        <v>18.64707786679301</v>
       </c>
       <c r="K10" t="n">
-        <v>108.1994283405593</v>
+        <v>108.1994283405597</v>
       </c>
       <c r="L10" t="n">
-        <v>278.3220397547873</v>
+        <v>278.3220397547882</v>
       </c>
       <c r="M10" t="n">
-        <v>468.0816036353754</v>
+        <v>468.0816036353768</v>
       </c>
       <c r="N10" t="n">
-        <v>658.7637256422161</v>
+        <v>658.7637256422179</v>
       </c>
       <c r="O10" t="n">
-        <v>818.8732325968227</v>
+        <v>818.8732325968249</v>
       </c>
       <c r="P10" t="n">
-        <v>932.3538933396478</v>
+        <v>932.3538933396503</v>
       </c>
       <c r="Q10" t="n">
-        <v>927.388121658538</v>
+        <v>927.3881216585407</v>
       </c>
       <c r="R10" t="n">
-        <v>927.388121658538</v>
+        <v>927.3881216585407</v>
       </c>
       <c r="S10" t="n">
-        <v>927.388121658538</v>
+        <v>927.3881216585407</v>
       </c>
       <c r="T10" t="n">
-        <v>927.388121658538</v>
+        <v>927.3881216585407</v>
       </c>
       <c r="U10" t="n">
-        <v>927.388121658538</v>
+        <v>927.3881216585407</v>
       </c>
       <c r="V10" t="n">
-        <v>927.388121658538</v>
+        <v>927.3881216585407</v>
       </c>
       <c r="W10" t="n">
-        <v>799.1943121509158</v>
+        <v>904.0956667674592</v>
       </c>
       <c r="X10" t="n">
-        <v>571.2047612528985</v>
+        <v>676.1061158694419</v>
       </c>
       <c r="Y10" t="n">
-        <v>350.4121821093684</v>
+        <v>676.1061158694419</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2330.350214717801</v>
+        <v>2330.350214717802</v>
       </c>
       <c r="C11" t="n">
         <v>1961.38769777739</v>
@@ -5024,10 +5024,10 @@
         <v>1603.12199917064</v>
       </c>
       <c r="E11" t="n">
-        <v>1217.333746572395</v>
+        <v>1217.333746572396</v>
       </c>
       <c r="F11" t="n">
-        <v>806.3478417827878</v>
+        <v>806.347841782788</v>
       </c>
       <c r="G11" t="n">
         <v>391.8530338894381</v>
@@ -5036,55 +5036,55 @@
         <v>100.1852123103651</v>
       </c>
       <c r="I11" t="n">
-        <v>80.45786684223397</v>
+        <v>80.45786684223404</v>
       </c>
       <c r="J11" t="n">
-        <v>317.3880320746703</v>
+        <v>317.3880320746716</v>
       </c>
       <c r="K11" t="n">
-        <v>723.2234501947028</v>
+        <v>723.223450194705</v>
       </c>
       <c r="L11" t="n">
-        <v>1263.599934653013</v>
+        <v>1263.599934653016</v>
       </c>
       <c r="M11" t="n">
-        <v>1896.542330458665</v>
+        <v>1896.542330458668</v>
       </c>
       <c r="N11" t="n">
-        <v>2544.340204328187</v>
+        <v>2544.340204328191</v>
       </c>
       <c r="O11" t="n">
-        <v>3142.702105990709</v>
+        <v>3142.702105990712</v>
       </c>
       <c r="P11" t="n">
-        <v>3618.889144608856</v>
+        <v>3618.88914460886</v>
       </c>
       <c r="Q11" t="n">
-        <v>3928.313032718599</v>
+        <v>3928.313032718602</v>
       </c>
       <c r="R11" t="n">
-        <v>4022.893342111699</v>
+        <v>4022.893342111702</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.765696676225</v>
+        <v>3925.765696676228</v>
       </c>
       <c r="T11" t="n">
-        <v>3925.765696676225</v>
+        <v>3925.765696676228</v>
       </c>
       <c r="U11" t="n">
-        <v>3672.281431330994</v>
+        <v>3925.765696676228</v>
       </c>
       <c r="V11" t="n">
-        <v>3446.723960224807</v>
+        <v>3594.702809332658</v>
       </c>
       <c r="W11" t="n">
-        <v>3093.955304954693</v>
+        <v>3241.934154062543</v>
       </c>
       <c r="X11" t="n">
-        <v>2720.489546693613</v>
+        <v>2868.468395801463</v>
       </c>
       <c r="Y11" t="n">
-        <v>2330.350214717801</v>
+        <v>2478.329063825652</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>176.3410440432266</v>
       </c>
       <c r="H12" t="n">
-        <v>88.82407519727431</v>
+        <v>88.82407519727435</v>
       </c>
       <c r="I12" t="n">
-        <v>80.45786684223397</v>
+        <v>80.45786684223404</v>
       </c>
       <c r="J12" t="n">
-        <v>202.7540031635558</v>
+        <v>80.45786684223404</v>
       </c>
       <c r="K12" t="n">
-        <v>489.9324039036193</v>
+        <v>367.6362675822977</v>
       </c>
       <c r="L12" t="n">
-        <v>922.4017448696447</v>
+        <v>800.1056085483233</v>
       </c>
       <c r="M12" t="n">
-        <v>1440.955109217993</v>
+        <v>1324.133799366935</v>
       </c>
       <c r="N12" t="n">
-        <v>1993.261411868773</v>
+        <v>1510.228841936571</v>
       </c>
       <c r="O12" t="n">
-        <v>1993.261411868773</v>
+        <v>1993.261411868772</v>
       </c>
       <c r="P12" t="n">
         <v>2361.604567899688</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>651.2002964989799</v>
+        <v>714.436128148494</v>
       </c>
       <c r="C13" t="n">
-        <v>631.4652117398851</v>
+        <v>714.436128148494</v>
       </c>
       <c r="D13" t="n">
-        <v>481.3485723275493</v>
+        <v>564.3194887361583</v>
       </c>
       <c r="E13" t="n">
-        <v>481.3485723275493</v>
+        <v>416.4063951537652</v>
       </c>
       <c r="F13" t="n">
-        <v>481.3485723275493</v>
+        <v>416.4063951537652</v>
       </c>
       <c r="G13" t="n">
-        <v>313.904846134801</v>
+        <v>248.9626689610169</v>
       </c>
       <c r="H13" t="n">
-        <v>169.9913866528134</v>
+        <v>169.9913866528135</v>
       </c>
       <c r="I13" t="n">
-        <v>80.45786684223397</v>
+        <v>80.45786684223404</v>
       </c>
       <c r="J13" t="n">
-        <v>143.5350566283902</v>
+        <v>143.5350566283903</v>
       </c>
       <c r="K13" t="n">
-        <v>377.0270927076818</v>
+        <v>377.0270927076822</v>
       </c>
       <c r="L13" t="n">
-        <v>731.3429449977127</v>
+        <v>731.3429449977129</v>
       </c>
       <c r="M13" t="n">
         <v>1115.308455583784</v>
       </c>
       <c r="N13" t="n">
-        <v>1495.578740955085</v>
+        <v>1495.578740955086</v>
       </c>
       <c r="O13" t="n">
-        <v>1830.803602510216</v>
+        <v>1830.803602510217</v>
       </c>
       <c r="P13" t="n">
-        <v>2094.125701226117</v>
+        <v>2094.125701226118</v>
       </c>
       <c r="Q13" t="n">
-        <v>2193.001193167697</v>
+        <v>2193.001193167698</v>
       </c>
       <c r="R13" t="n">
-        <v>2114.821283191651</v>
+        <v>2114.821283191652</v>
       </c>
       <c r="S13" t="n">
-        <v>2114.821283191651</v>
+        <v>1927.650987192708</v>
       </c>
       <c r="T13" t="n">
-        <v>2114.821283191651</v>
+        <v>1706.991479973965</v>
       </c>
       <c r="U13" t="n">
-        <v>1825.732549613615</v>
+        <v>1417.902746395928</v>
       </c>
       <c r="V13" t="n">
-        <v>1571.048061407728</v>
+        <v>1163.218258190042</v>
       </c>
       <c r="W13" t="n">
-        <v>1281.630891370767</v>
+        <v>1163.218258190042</v>
       </c>
       <c r="X13" t="n">
-        <v>1053.64134047275</v>
+        <v>935.2287072920242</v>
       </c>
       <c r="Y13" t="n">
-        <v>832.8487613292197</v>
+        <v>714.436128148494</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5261,13 +5261,13 @@
         <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
         <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
         <v>92.81162322608056</v>
@@ -5276,25 +5276,25 @@
         <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128756</v>
+        <v>841.9378825128774</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333935</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021283</v>
       </c>
       <c r="Q14" t="n">
         <v>4514.49737412729</v>
@@ -5303,25 +5303,25 @@
         <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>92.81162322608056</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608056</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608056</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L15" t="n">
-        <v>372.2013186925058</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M15" t="n">
-        <v>964.2196729446335</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N15" t="n">
-        <v>1586.31563634397</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O15" t="n">
-        <v>2133.192111344164</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="P15" t="n">
         <v>2552.77562977024</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.38528403403</v>
+        <v>783.135203707347</v>
       </c>
       <c r="C16" t="n">
-        <v>929.4491011061234</v>
+        <v>783.135203707347</v>
       </c>
       <c r="D16" t="n">
-        <v>779.3324616937875</v>
+        <v>633.0185642950113</v>
       </c>
       <c r="E16" t="n">
-        <v>631.4193681113945</v>
+        <v>485.1054707126182</v>
       </c>
       <c r="F16" t="n">
-        <v>484.5294206134843</v>
+        <v>338.2155232147078</v>
       </c>
       <c r="G16" t="n">
-        <v>317.315225788063</v>
+        <v>171.0013283892866</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264934</v>
+        <v>171.0013283892866</v>
       </c>
       <c r="I16" t="n">
         <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.422473086198</v>
+        <v>431.4224730861984</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693323</v>
+        <v>819.1842911693326</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213792</v>
@@ -5458,28 +5458,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2428.375774410168</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2272.917537148665</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U16" t="n">
-        <v>2272.917537148665</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.233048942778</v>
+        <v>1702.982968616095</v>
       </c>
       <c r="W16" t="n">
-        <v>1728.815878905817</v>
+        <v>1413.565798579134</v>
       </c>
       <c r="X16" t="n">
-        <v>1500.8263280078</v>
+        <v>1185.576247681117</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.03374886427</v>
+        <v>964.7836685375868</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2266.424947555047</v>
+        <v>2266.424947555045</v>
       </c>
       <c r="C17" t="n">
-        <v>1897.462430614635</v>
+        <v>1897.462430614633</v>
       </c>
       <c r="D17" t="n">
-        <v>1539.196732007885</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E17" t="n">
         <v>1204.208000760437</v>
@@ -5504,19 +5504,19 @@
         <v>793.22209597083</v>
       </c>
       <c r="G17" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H17" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I17" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322607997</v>
       </c>
       <c r="J17" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251944</v>
       </c>
       <c r="K17" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128765</v>
       </c>
       <c r="L17" t="n">
         <v>1461.457663018651</v>
@@ -5528,37 +5528,37 @@
         <v>2919.747202874795</v>
       </c>
       <c r="O17" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P17" t="n">
         <v>4150.915188021281</v>
       </c>
       <c r="Q17" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R17" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S17" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T17" t="n">
-        <v>4353.904749750195</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U17" t="n">
-        <v>4100.461420469745</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V17" t="n">
-        <v>3769.398533126175</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W17" t="n">
-        <v>3416.62987785606</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X17" t="n">
-        <v>3043.164119594981</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y17" t="n">
-        <v>2653.024787619169</v>
+        <v>2653.024787619167</v>
       </c>
     </row>
     <row r="18">
@@ -5580,34 +5580,34 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F18" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G18" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I18" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J18" t="n">
         <v>240.4596049779265</v>
       </c>
       <c r="K18" t="n">
-        <v>372.2013186925058</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L18" t="n">
-        <v>372.2013186925058</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M18" t="n">
-        <v>964.2196729446335</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N18" t="n">
-        <v>1586.31563634397</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O18" t="n">
-        <v>2133.192111344164</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="P18" t="n">
         <v>2552.77562977024</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.5822429537271</v>
+        <v>561.9183350635717</v>
       </c>
       <c r="C19" t="n">
-        <v>634.6460600258202</v>
+        <v>537.73130371872</v>
       </c>
       <c r="D19" t="n">
-        <v>484.5294206134845</v>
+        <v>387.6146643063843</v>
       </c>
       <c r="E19" t="n">
-        <v>484.5294206134845</v>
+        <v>239.7015707239909</v>
       </c>
       <c r="F19" t="n">
-        <v>484.5294206134845</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="G19" t="n">
-        <v>317.3152257880633</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H19" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I19" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J19" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K19" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861982</v>
       </c>
       <c r="L19" t="n">
-        <v>819.1842911693324</v>
+        <v>819.1842911693325</v>
       </c>
       <c r="M19" t="n">
         <v>1238.413883213792</v>
@@ -5695,28 +5695,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.516429368669</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S19" t="n">
-        <v>2177.3462391076</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T19" t="n">
-        <v>1957.667456821982</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="U19" t="n">
-        <v>1668.591243136708</v>
+        <v>1736.450588178207</v>
       </c>
       <c r="V19" t="n">
-        <v>1413.906754930822</v>
+        <v>1481.76609997232</v>
       </c>
       <c r="W19" t="n">
-        <v>1124.489584893861</v>
+        <v>1192.348929935359</v>
       </c>
       <c r="X19" t="n">
-        <v>1124.489584893861</v>
+        <v>964.3593790373416</v>
       </c>
       <c r="Y19" t="n">
-        <v>903.6970057503308</v>
+        <v>743.5667998938114</v>
       </c>
     </row>
     <row r="20">
@@ -5741,61 +5741,61 @@
         <v>793.22209597083</v>
       </c>
       <c r="G20" t="n">
-        <v>379.2389888872365</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H20" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I20" t="n">
         <v>92.81162322607997</v>
       </c>
       <c r="J20" t="n">
-        <v>372.3074987251938</v>
+        <v>372.3074987251925</v>
       </c>
       <c r="K20" t="n">
-        <v>841.9378825128758</v>
+        <v>841.9378825128745</v>
       </c>
       <c r="L20" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.457663018649</v>
       </c>
       <c r="M20" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N20" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O20" t="n">
         <v>3602.609239333933</v>
       </c>
       <c r="P20" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q20" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R20" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S20" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T20" t="n">
-        <v>4353.904749750195</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U20" t="n">
-        <v>4100.461420469745</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V20" t="n">
-        <v>3769.398533126174</v>
+        <v>3820.198054476971</v>
       </c>
       <c r="W20" t="n">
-        <v>3416.62987785606</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X20" t="n">
-        <v>3093.963640945778</v>
+        <v>3093.963640945777</v>
       </c>
       <c r="Y20" t="n">
-        <v>2703.824308969966</v>
+        <v>2703.824308969965</v>
       </c>
     </row>
     <row r="21">
@@ -5817,34 +5817,34 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F21" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G21" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I21" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J21" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="K21" t="n">
-        <v>92.81162322608056</v>
+        <v>423.3203657894393</v>
       </c>
       <c r="L21" t="n">
-        <v>372.2013186925054</v>
+        <v>914.0526986331906</v>
       </c>
       <c r="M21" t="n">
-        <v>964.2196729446332</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="N21" t="n">
-        <v>1586.31563634397</v>
+        <v>2128.167016284654</v>
       </c>
       <c r="O21" t="n">
-        <v>2133.192111344164</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P21" t="n">
         <v>2552.77562977024</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>873.8816814720478</v>
+        <v>950.4721904516374</v>
       </c>
       <c r="C22" t="n">
-        <v>704.9454985441409</v>
+        <v>781.5360075237305</v>
       </c>
       <c r="D22" t="n">
-        <v>554.8288591318052</v>
+        <v>631.4193681113948</v>
       </c>
       <c r="E22" t="n">
-        <v>406.9157655494121</v>
+        <v>631.4193681113948</v>
       </c>
       <c r="F22" t="n">
-        <v>260.0258180515017</v>
+        <v>484.5294206134844</v>
       </c>
       <c r="G22" t="n">
-        <v>92.81162322608056</v>
+        <v>317.3152257880632</v>
       </c>
       <c r="H22" t="n">
-        <v>92.81162322608056</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="I22" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J22" t="n">
         <v>171.7937461156345</v>
       </c>
       <c r="K22" t="n">
-        <v>431.4224730861982</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L22" t="n">
-        <v>819.1842911693326</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M22" t="n">
         <v>1238.413883213792</v>
@@ -5935,25 +5935,25 @@
         <v>2360.516429368669</v>
       </c>
       <c r="S22" t="n">
-        <v>2268.092716872299</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T22" t="n">
-        <v>2048.413934586682</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U22" t="n">
-        <v>2048.413934586682</v>
+        <v>1722.563399592502</v>
       </c>
       <c r="V22" t="n">
-        <v>1793.729446380795</v>
+        <v>1467.878911386616</v>
       </c>
       <c r="W22" t="n">
-        <v>1504.312276343835</v>
+        <v>1178.461741349655</v>
       </c>
       <c r="X22" t="n">
-        <v>1276.322725445817</v>
+        <v>950.4721904516374</v>
       </c>
       <c r="Y22" t="n">
-        <v>1055.530146302287</v>
+        <v>950.4721904516374</v>
       </c>
     </row>
     <row r="23">
@@ -5966,40 +5966,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6020,7 +6020,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718132</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>866.4638174991038</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>697.5276345711968</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597624</v>
+        <v>697.5276345711968</v>
       </c>
       <c r="E25" t="n">
-        <v>264.0500279773693</v>
+        <v>549.6145409888037</v>
       </c>
       <c r="F25" t="n">
-        <v>117.1600804794589</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="G25" t="n">
-        <v>117.1600804794589</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>117.1600804794589</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6172,25 +6172,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,16 +6236,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516144</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.533952578166</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1804.131916132773</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>733.455065717131</v>
+        <v>580.8993044876681</v>
       </c>
       <c r="C28" t="n">
-        <v>564.5188827892241</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D28" t="n">
-        <v>414.4022433768885</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E28" t="n">
-        <v>266.4891497944955</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>266.4891497944955</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6385,49 +6385,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487568</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831766</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625879</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588918</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.896109690901</v>
+        <v>983.340348461438</v>
       </c>
       <c r="Y28" t="n">
-        <v>915.1035305473707</v>
+        <v>762.5477693179079</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,10 +6473,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,25 +6540,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851669</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>527.77225215726</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6619,16 +6619,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782952</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570817</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154066</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6692,52 +6692,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591809</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239597</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>429.5088224239597</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.4550657171303</v>
+        <v>803.2707707770317</v>
       </c>
       <c r="C34" t="n">
-        <v>637.902506765482</v>
+        <v>634.3345878491248</v>
       </c>
       <c r="D34" t="n">
-        <v>637.902506765482</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830889</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851785</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588918</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.10353054737</v>
+        <v>984.9192356072714</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,19 +6932,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
@@ -7014,25 +7014,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349513</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1520.445529061503</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2072.35525930079</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2495.978408795859</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>869.6905094135296</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C37" t="n">
-        <v>700.7543264856228</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D37" t="n">
-        <v>550.637687073287</v>
+        <v>444.7013164925218</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>296.7882229101281</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>296.7882229101281</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.121104285317</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.131553387299</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.338974243769</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,16 +7184,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>557.5558870561822</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,19 +7330,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
         <v>2035.089393279803</v>
@@ -7354,28 +7354,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1187.986481927969</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>959.9969310299521</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>739.2043518864219</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7388,31 +7388,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,37 +7421,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>549.6145409888042</v>
+        <v>1091.10905366816</v>
       </c>
       <c r="C43" t="n">
-        <v>549.6145409888042</v>
+        <v>922.1728707402528</v>
       </c>
       <c r="D43" t="n">
-        <v>549.6145409888042</v>
+        <v>772.0562313279166</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>624.1431377455235</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>477.2531902476131</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1724.146794103439</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1469.462305897552</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1180.045135860591</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X43" t="n">
-        <v>952.055584962574</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y43" t="n">
-        <v>731.2630058190439</v>
+        <v>1272.757518498399</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,37 +7658,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,28 +7719,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452613</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718132</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356196</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232839</v>
+        <v>344.917417812164</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>344.917417812164</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.917417812164</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270439</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797742</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1729.097755135314</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135314</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7979,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>208.3214547517356</v>
+        <v>242.2613672256909</v>
       </c>
       <c r="L2" t="n">
-        <v>221.1666787354324</v>
+        <v>255.1065912093878</v>
       </c>
       <c r="M2" t="n">
         <v>248.0411260722765</v>
       </c>
       <c r="N2" t="n">
-        <v>246.8450950403531</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O2" t="n">
-        <v>248.4501999472249</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P2" t="n">
         <v>250.4976661837099</v>
@@ -8061,19 +8061,19 @@
         <v>163.7881088975641</v>
       </c>
       <c r="L3" t="n">
-        <v>161.7463912169474</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M3" t="n">
         <v>129.5917403577182</v>
       </c>
       <c r="N3" t="n">
-        <v>118.4674613291454</v>
+        <v>151.0360642081934</v>
       </c>
       <c r="O3" t="n">
         <v>130.8188201934042</v>
       </c>
       <c r="P3" t="n">
-        <v>157.0905890158553</v>
+        <v>158.4618986107626</v>
       </c>
       <c r="Q3" t="n">
         <v>167.6029932607663</v>
@@ -8216,16 +8216,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>202.1809638361346</v>
+        <v>240.6620276789126</v>
       </c>
       <c r="L5" t="n">
         <v>213.5488567752802</v>
       </c>
       <c r="M5" t="n">
-        <v>237.3382646615596</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N5" t="n">
-        <v>242.7727963709657</v>
+        <v>241.2180059126716</v>
       </c>
       <c r="O5" t="n">
         <v>244.8579146936526</v>
@@ -8234,7 +8234,7 @@
         <v>249.4684271639326</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664798</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>164.1585617237782</v>
@@ -8301,13 +8301,13 @@
         <v>160.6795236990645</v>
       </c>
       <c r="M6" t="n">
-        <v>123.047446830095</v>
+        <v>153.6033966620569</v>
       </c>
       <c r="N6" t="n">
         <v>111.7499598249992</v>
       </c>
       <c r="O6" t="n">
-        <v>161.599892072038</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P6" t="n">
         <v>119.5899201578276</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>59.23156111301304</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8468,10 +8468,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>153.2757454004983</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>75.05243088459336</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>17.4962195206095</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,7 +8538,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>2.792468803052685</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>104.2749407190998</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R26" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11078,10 +11078,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>236.2347810467094</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23312,10 +23312,10 @@
         <v>201.4146274292354</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.949422691779</v>
       </c>
       <c r="V11" t="n">
-        <v>104.4503620750103</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>147.709087187124</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>64.29275540204632</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.2985930389547</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.4529121465557</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.29152613728917</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>50.29152613728951</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>4.396768632834991</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>63.57833957387378</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
@@ -23735,10 +23735,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>50.29152613729153</v>
       </c>
       <c r="E17" t="n">
-        <v>50.2915261372895</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>80.71836501329965</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>143.3016600672247</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>50.29152613729062</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>50.2915261372895</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.804576744409</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>89.83901298705264</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1854515484204</v>
+        <v>53.4324348912356</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>58.15585306139332</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>101.682581879676</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>136.2749052347526</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>134.8730892594344</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.81829093850887</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347518</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>72.64978773649604</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>147.0213775686985</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>45.84813034729973</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>171.2522535850789</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.22910392194169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>43.26526345294937</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>7.48252552941338</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,19 +25840,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>35.40333084624504</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.4949402405081</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26077,13 +26077,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>6.257951202385414</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>941651.1939929287</v>
+        <v>941651.1939929285</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>846557.7720642594</v>
+        <v>846557.7720642597</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>910334.0706729332</v>
+        <v>910334.070672933</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>910334.070672933</v>
+        <v>910334.0706729328</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>910334.0706729328</v>
+        <v>910334.0706729329</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>915359.2522314048</v>
+        <v>915359.2522314049</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>915359.2522314049</v>
+        <v>915359.2522314048</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>915359.2522314048</v>
+        <v>915359.2522314049</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>915359.2522314049</v>
+        <v>915359.252231405</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>915359.2522314048</v>
+        <v>915359.2522314049</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>915359.2522314049</v>
+        <v>915359.252231405</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>915359.2522314049</v>
+        <v>915359.252231405</v>
       </c>
     </row>
   </sheetData>
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.1061651768</v>
+      </c>
+      <c r="C2" t="n">
         <v>513151.1061651769</v>
-      </c>
-      <c r="C2" t="n">
-        <v>513151.1061651768</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
-        <v>466243.5802689509</v>
+        <v>466243.5802689508</v>
       </c>
       <c r="F2" t="n">
-        <v>501674.8572737695</v>
+        <v>501674.8572737693</v>
       </c>
       <c r="G2" t="n">
-        <v>501674.8572737694</v>
+        <v>501674.8572737692</v>
       </c>
       <c r="H2" t="n">
         <v>501674.8572737694</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="J2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="K2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="L2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="N2" t="n">
         <v>504466.6248062537</v>
@@ -26369,22 +26369,22 @@
         <v>12401.51063995663</v>
       </c>
       <c r="D3" t="n">
-        <v>491253.9055054545</v>
+        <v>491253.905505456</v>
       </c>
       <c r="E3" t="n">
-        <v>788234.0245598176</v>
+        <v>788234.0245598168</v>
       </c>
       <c r="F3" t="n">
-        <v>143852.0300046397</v>
+        <v>143852.030004639</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10818.91345744836</v>
+        <v>10818.91345744848</v>
       </c>
       <c r="J3" t="n">
         <v>8880.174459335547</v>
@@ -26393,13 +26393,13 @@
         <v>1168.747045491171</v>
       </c>
       <c r="L3" t="n">
-        <v>49253.38387577371</v>
+        <v>49253.38387577381</v>
       </c>
       <c r="M3" t="n">
-        <v>192543.6981979475</v>
+        <v>192543.6981979477</v>
       </c>
       <c r="N3" t="n">
-        <v>37822.10612282985</v>
+        <v>37822.10612282962</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>397057.3584744651</v>
       </c>
       <c r="D4" t="n">
-        <v>266493.575225306</v>
+        <v>266493.5752253056</v>
       </c>
       <c r="E4" t="n">
         <v>8030.786674106925</v>
       </c>
       <c r="F4" t="n">
-        <v>8110.779805506623</v>
+        <v>8110.779805506626</v>
       </c>
       <c r="G4" t="n">
-        <v>8110.779805506623</v>
+        <v>8110.779805506621</v>
       </c>
       <c r="H4" t="n">
-        <v>8110.779805506623</v>
+        <v>8110.779805506622</v>
       </c>
       <c r="I4" t="n">
+        <v>8117.31242673198</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8117.312426731977</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8117.312426731987</v>
+      </c>
+      <c r="L4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="J4" t="n">
-        <v>8117.312426731962</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8117.312426731948</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8117.312426731934</v>
-      </c>
       <c r="M4" t="n">
+        <v>8117.312426732007</v>
+      </c>
+      <c r="N4" t="n">
         <v>8117.312426731984</v>
       </c>
-      <c r="N4" t="n">
-        <v>8117.312426731962</v>
-      </c>
       <c r="O4" t="n">
-        <v>8117.312426731952</v>
+        <v>8117.312426732006</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426731962</v>
+        <v>8117.312426732005</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>36730.71216531784</v>
       </c>
       <c r="D5" t="n">
-        <v>59528.9239368105</v>
+        <v>59528.92393681058</v>
       </c>
       <c r="E5" t="n">
-        <v>88006.19635166992</v>
+        <v>88006.19635166999</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43147.39442632718</v>
+        <v>43147.39442632712</v>
       </c>
       <c r="C6" t="n">
-        <v>66961.52488543722</v>
+        <v>66961.52488543728</v>
       </c>
       <c r="D6" t="n">
-        <v>-304125.2985023938</v>
+        <v>-304125.298502395</v>
       </c>
       <c r="E6" t="n">
-        <v>-418027.4273166435</v>
+        <v>-418215.0574202277</v>
       </c>
       <c r="F6" t="n">
-        <v>249569.9189497847</v>
+        <v>249524.0139542196</v>
       </c>
       <c r="G6" t="n">
-        <v>393421.9489544244</v>
+        <v>393376.0439588586</v>
       </c>
       <c r="H6" t="n">
-        <v>393421.9489544241</v>
+        <v>393376.0439588587</v>
       </c>
       <c r="I6" t="n">
-        <v>384407.8690981663</v>
+        <v>384373.1311727303</v>
       </c>
       <c r="J6" t="n">
-        <v>386346.608096279</v>
+        <v>386311.8701708433</v>
       </c>
       <c r="K6" t="n">
-        <v>394058.0355101235</v>
+        <v>394023.2975846876</v>
       </c>
       <c r="L6" t="n">
-        <v>345973.398679841</v>
+        <v>345938.6607544051</v>
       </c>
       <c r="M6" t="n">
-        <v>202683.0843576671</v>
+        <v>202648.3464322312</v>
       </c>
       <c r="N6" t="n">
-        <v>357404.6764327848</v>
+        <v>357369.9385073493</v>
       </c>
       <c r="O6" t="n">
-        <v>395226.7825556145</v>
+        <v>395192.0446301788</v>
       </c>
       <c r="P6" t="n">
-        <v>395226.7825556146</v>
+        <v>395192.0446301789</v>
       </c>
     </row>
   </sheetData>
@@ -26741,10 +26741,10 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>538.0525118370578</v>
+        <v>538.0525118370593</v>
       </c>
       <c r="E3" t="n">
-        <v>1232.028328053766</v>
+        <v>1232.028328053767</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26793,19 +26793,19 @@
         <v>38.48106384277808</v>
       </c>
       <c r="D4" t="n">
-        <v>233.088473334912</v>
+        <v>233.0884733349126</v>
       </c>
       <c r="E4" t="n">
-        <v>1005.723335527925</v>
+        <v>1005.723335527926</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="H4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26817,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099649</v>
@@ -26826,10 +26826,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26963,19 +26963,19 @@
         <v>12.007878032336</v>
       </c>
       <c r="D3" t="n">
-        <v>503.0312511179324</v>
+        <v>503.031251117934</v>
       </c>
       <c r="E3" t="n">
-        <v>693.9758162167085</v>
+        <v>693.9758162167074</v>
       </c>
       <c r="F3" t="n">
-        <v>126.0127206626196</v>
+        <v>126.0127206626191</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>9.93445162528792</v>
@@ -27015,22 +27015,22 @@
         <v>4.541151368822746</v>
       </c>
       <c r="D4" t="n">
-        <v>194.6074094921339</v>
+        <v>194.6074094921345</v>
       </c>
       <c r="E4" t="n">
-        <v>772.6348621930126</v>
+        <v>772.634862193013</v>
       </c>
       <c r="F4" t="n">
-        <v>154.4219547980823</v>
+        <v>154.4219547980814</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="J4" t="n">
         <v>33.93991247395525</v>
@@ -27039,13 +27039,13 @@
         <v>4.541151368822739</v>
       </c>
       <c r="L4" t="n">
-        <v>194.6074094921341</v>
+        <v>194.6074094921345</v>
       </c>
       <c r="M4" t="n">
-        <v>772.6348621930126</v>
+        <v>772.6348621930132</v>
       </c>
       <c r="N4" t="n">
-        <v>154.4219547980821</v>
+        <v>154.4219547980812</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27261,13 +27261,13 @@
         <v>4.541151368822746</v>
       </c>
       <c r="L4" t="n">
-        <v>194.6074094921339</v>
+        <v>194.6074094921345</v>
       </c>
       <c r="M4" t="n">
-        <v>772.6348621930126</v>
+        <v>772.634862193013</v>
       </c>
       <c r="N4" t="n">
-        <v>154.4219547980823</v>
+        <v>154.4219547980814</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>331.3329792970522</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>372.9361332677561</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>396.2890922913352</v>
       </c>
       <c r="H2" t="n">
         <v>338.5273214908784</v>
       </c>
       <c r="I2" t="n">
-        <v>206.909162189371</v>
+        <v>172.9692497154156</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>110.1176902905148</v>
       </c>
       <c r="S2" t="n">
-        <v>172.9719462259575</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
-        <v>212.1039068365232</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
         <v>251.3382516189322</v>
@@ -27467,16 +27467,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>111.1292999194285</v>
       </c>
       <c r="G3" t="n">
         <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>111.757373777286</v>
+        <v>77.81746130333066</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828964</v>
+        <v>53.75242741433431</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,10 +27509,10 @@
         <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
-        <v>166.0252945351195</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>191.9982129962619</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>175.8787102964176</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>171.742783303349</v>
+        <v>175.7884208702445</v>
       </c>
     </row>
     <row r="4">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>145.892067707982</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>114.675560544257</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,13 +27552,13 @@
         <v>167.9494798159088</v>
       </c>
       <c r="H4" t="n">
-        <v>161.8582038473137</v>
+        <v>127.9182913733584</v>
       </c>
       <c r="I4" t="n">
         <v>154.2024705022108</v>
       </c>
       <c r="J4" t="n">
-        <v>77.97888707004779</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>48.74710999203386</v>
+        <v>48.74710999203387</v>
       </c>
       <c r="R4" t="n">
-        <v>141.487508562741</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S4" t="n">
         <v>223.2933741908973</v>
       </c>
       <c r="T4" t="n">
-        <v>227.7682732010226</v>
+        <v>215.3219978126789</v>
       </c>
       <c r="U4" t="n">
         <v>286.3167657450791</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>368.3949818989333</v>
+        <v>388.1438732363119</v>
       </c>
       <c r="G5" t="n">
-        <v>376.6808846845414</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I5" t="n">
-        <v>205.0481221176458</v>
+        <v>166.5670582748677</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>102.5442178425012</v>
       </c>
       <c r="S5" t="n">
-        <v>171.9177194936789</v>
+        <v>167.3307766836197</v>
       </c>
       <c r="T5" t="n">
         <v>222.4795457699687</v>
@@ -27701,13 +27701,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>119.1640166126229</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>111.1750913606649</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2681884137393</v>
+        <v>98.78712457096123</v>
       </c>
       <c r="H6" t="n">
         <v>111.5079271034444</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.48084390037957</v>
+        <v>56.99978005760148</v>
       </c>
       <c r="S6" t="n">
         <v>170.2839726213331</v>
@@ -27752,16 +27752,16 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V6" t="n">
-        <v>198.9064661167063</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>213.2139193181415</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>167.2919213606994</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>167.2016319345263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>128.7657572558497</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,10 +27789,10 @@
         <v>167.9278262653587</v>
       </c>
       <c r="H7" t="n">
-        <v>161.6656840978772</v>
+        <v>142.7038137108703</v>
       </c>
       <c r="I7" t="n">
-        <v>153.551289182031</v>
+        <v>115.0702253392529</v>
       </c>
       <c r="J7" t="n">
         <v>88.89425643449839</v>
@@ -27822,10 +27822,10 @@
         <v>174.4537986637794</v>
       </c>
       <c r="S7" t="n">
-        <v>203.9541414729397</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T7" t="n">
-        <v>189.1946896422577</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U7" t="n">
         <v>286.3155846423218</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>187.2285915462591</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>149.645368328568</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>193.9803104454752</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>148.8418967373498</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>355.79328025453</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>317.3227205605862</v>
+        <v>317.3227205605861</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>127.0858615800612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>159.7301334516244</v>
+        <v>159.7301334516243</v>
       </c>
       <c r="T8" t="n">
         <v>213.6272068683857</v>
@@ -27910,16 +27910,16 @@
         <v>251.1726108939793</v>
       </c>
       <c r="V8" t="n">
-        <v>94.66378513522295</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>116.1524953825011</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>136.6426273435565</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>153.149465321141</v>
       </c>
     </row>
     <row r="9">
@@ -27932,25 +27932,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>136.1861966660517</v>
       </c>
       <c r="H9" t="n">
-        <v>101.0581646981455</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>49.55029117291598</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,28 +27977,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>28.30244398693188</v>
+        <v>28.30244398693166</v>
       </c>
       <c r="S9" t="n">
-        <v>82.67372763732145</v>
+        <v>150.1864504658195</v>
       </c>
       <c r="T9" t="n">
         <v>195.4999149365362</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8652425745828</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>33.2485717120623</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0207207305559</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.6006912520848</v>
+        <v>153.6006912520847</v>
       </c>
       <c r="I10" t="n">
-        <v>126.2721518263241</v>
+        <v>126.272151826324</v>
       </c>
       <c r="J10" t="n">
-        <v>24.76189512393839</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>133.6670352534632</v>
+        <v>133.667035253463</v>
       </c>
       <c r="S10" t="n">
-        <v>207.1076363125192</v>
+        <v>207.1076363125191</v>
       </c>
       <c r="T10" t="n">
         <v>223.7999389272419</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>159.611126924045</v>
+        <v>263.4634679944203</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28509,7 +28509,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -29809,7 +29809,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.163025173214301</v>
+        <v>2.163025173214307</v>
       </c>
       <c r="H8" t="n">
-        <v>22.15208155518096</v>
+        <v>22.15208155518103</v>
       </c>
       <c r="I8" t="n">
-        <v>83.39002799034442</v>
+        <v>83.39002799034466</v>
       </c>
       <c r="J8" t="n">
-        <v>183.5840577950974</v>
+        <v>183.584057795098</v>
       </c>
       <c r="K8" t="n">
-        <v>275.1449133772588</v>
+        <v>275.1449133772597</v>
       </c>
       <c r="L8" t="n">
-        <v>341.3415950220161</v>
+        <v>341.3415950220171</v>
       </c>
       <c r="M8" t="n">
-        <v>379.8082939461659</v>
+        <v>379.808293946167</v>
       </c>
       <c r="N8" t="n">
-        <v>385.953989219561</v>
+        <v>385.9539892195622</v>
       </c>
       <c r="O8" t="n">
-        <v>364.4454076534113</v>
+        <v>364.4454076534124</v>
       </c>
       <c r="P8" t="n">
-        <v>311.0457236896832</v>
+        <v>311.0457236896842</v>
       </c>
       <c r="Q8" t="n">
-        <v>233.582384673946</v>
+        <v>233.5823846739467</v>
       </c>
       <c r="R8" t="n">
-        <v>135.873130036923</v>
+        <v>135.8731300369234</v>
       </c>
       <c r="S8" t="n">
-        <v>49.28993613462093</v>
+        <v>49.28993613462108</v>
       </c>
       <c r="T8" t="n">
-        <v>9.468642695745608</v>
+        <v>9.468642695745634</v>
       </c>
       <c r="U8" t="n">
-        <v>0.173042013857144</v>
+        <v>0.1730420138571445</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.157320497158954</v>
+        <v>1.157320497158958</v>
       </c>
       <c r="H9" t="n">
-        <v>11.17727953835096</v>
+        <v>11.17727953835099</v>
       </c>
       <c r="I9" t="n">
-        <v>39.84634167849909</v>
+        <v>39.84634167849921</v>
       </c>
       <c r="J9" t="n">
-        <v>109.3414071460572</v>
+        <v>109.3414071460575</v>
       </c>
       <c r="K9" t="n">
-        <v>186.8818804557071</v>
+        <v>186.8818804557077</v>
       </c>
       <c r="L9" t="n">
-        <v>251.2857509291844</v>
+        <v>251.2857509291852</v>
       </c>
       <c r="M9" t="n">
-        <v>293.2386189511964</v>
+        <v>293.2386189511973</v>
       </c>
       <c r="N9" t="n">
-        <v>300.9997726360914</v>
+        <v>300.9997726360923</v>
       </c>
       <c r="O9" t="n">
-        <v>275.3559868832535</v>
+        <v>275.3559868832543</v>
       </c>
       <c r="P9" t="n">
-        <v>220.9974552864323</v>
+        <v>220.9974552864329</v>
       </c>
       <c r="Q9" t="n">
-        <v>147.730946268922</v>
+        <v>147.7309462689224</v>
       </c>
       <c r="R9" t="n">
-        <v>71.85539016571126</v>
+        <v>71.85539016571147</v>
       </c>
       <c r="S9" t="n">
-        <v>21.49672063801829</v>
+        <v>21.49672063801835</v>
       </c>
       <c r="T9" t="n">
-        <v>4.664813758285433</v>
+        <v>4.664813758285447</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07613950639203651</v>
+        <v>0.07613950639203673</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9702586279028909</v>
+        <v>0.9702586279028937</v>
       </c>
       <c r="H10" t="n">
-        <v>8.6264812553548</v>
+        <v>8.626481255354825</v>
       </c>
       <c r="I10" t="n">
-        <v>29.17832310093422</v>
+        <v>29.17832310093431</v>
       </c>
       <c r="J10" t="n">
-        <v>68.59728499273439</v>
+        <v>68.59728499273459</v>
       </c>
       <c r="K10" t="n">
-        <v>112.726411496354</v>
+        <v>112.7264114963544</v>
       </c>
       <c r="L10" t="n">
-        <v>144.2509963702171</v>
+        <v>144.2509963702175</v>
       </c>
       <c r="M10" t="n">
-        <v>152.0924501902686</v>
+        <v>152.0924501902691</v>
       </c>
       <c r="N10" t="n">
-        <v>148.4760316680852</v>
+        <v>148.4760316680857</v>
       </c>
       <c r="O10" t="n">
-        <v>137.1416467875832</v>
+        <v>137.1416467875836</v>
       </c>
       <c r="P10" t="n">
-        <v>117.3483707783641</v>
+        <v>117.3483707783645</v>
       </c>
       <c r="Q10" t="n">
-        <v>81.24592928739571</v>
+        <v>81.24592928739595</v>
       </c>
       <c r="R10" t="n">
-        <v>43.62635612370634</v>
+        <v>43.62635612370646</v>
       </c>
       <c r="S10" t="n">
-        <v>16.9089617244531</v>
+        <v>16.90896172445315</v>
       </c>
       <c r="T10" t="n">
-        <v>4.145650501039624</v>
+        <v>4.145650501039636</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05292319788561229</v>
+        <v>0.05292319788561245</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.952877700718655</v>
+        <v>4.952877700718656</v>
       </c>
       <c r="H11" t="n">
-        <v>50.72365875248494</v>
+        <v>50.72365875248495</v>
       </c>
       <c r="I11" t="n">
-        <v>190.9458175569561</v>
+        <v>190.9458175569562</v>
       </c>
       <c r="J11" t="n">
-        <v>420.3693037513703</v>
+        <v>420.3693037513705</v>
       </c>
       <c r="K11" t="n">
-        <v>630.024616822791</v>
+        <v>630.0246168227912</v>
       </c>
       <c r="L11" t="n">
-        <v>781.6012477561598</v>
+        <v>781.60124775616</v>
       </c>
       <c r="M11" t="n">
-        <v>869.6819865663151</v>
+        <v>869.6819865663153</v>
       </c>
       <c r="N11" t="n">
-        <v>883.7543503334821</v>
+        <v>883.7543503334823</v>
       </c>
       <c r="O11" t="n">
-        <v>834.5041726969608</v>
+        <v>834.5041726969612</v>
       </c>
       <c r="P11" t="n">
-        <v>712.230004460469</v>
+        <v>712.2300044604692</v>
       </c>
       <c r="Q11" t="n">
-        <v>534.855071803482</v>
+        <v>534.8550718034821</v>
       </c>
       <c r="R11" t="n">
-        <v>311.1212038677685</v>
+        <v>311.1212038677686</v>
       </c>
       <c r="S11" t="n">
         <v>112.8637006051265</v>
       </c>
       <c r="T11" t="n">
-        <v>21.68122213489592</v>
+        <v>21.68122213489593</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3962302160574923</v>
+        <v>0.3962302160574924</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.65002319619112</v>
+        <v>2.650023196191121</v>
       </c>
       <c r="H12" t="n">
-        <v>25.59364507900371</v>
+        <v>25.59364507900372</v>
       </c>
       <c r="I12" t="n">
-        <v>91.23983372851006</v>
+        <v>91.23983372851009</v>
       </c>
       <c r="J12" t="n">
-        <v>250.3690774962847</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>427.9206316410898</v>
+        <v>427.9206316410899</v>
       </c>
       <c r="L12" t="n">
-        <v>575.3920979273746</v>
+        <v>575.3920979273748</v>
       </c>
       <c r="M12" t="n">
-        <v>665.9253110415621</v>
+        <v>671.4554387893028</v>
       </c>
       <c r="N12" t="n">
-        <v>689.2268662760405</v>
+        <v>319.3165025577131</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>630.5079312446479</v>
       </c>
       <c r="P12" t="n">
-        <v>506.0382013849517</v>
+        <v>506.0382013849519</v>
       </c>
       <c r="Q12" t="n">
-        <v>338.2731364120455</v>
+        <v>338.2731364120456</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>49.2230185783745</v>
+        <v>49.22301857837451</v>
       </c>
       <c r="T12" t="n">
-        <v>10.68145314605104</v>
+        <v>10.68145314605105</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1743436313283632</v>
+        <v>0.1743436313283633</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.221690427637939</v>
+        <v>2.22169042763794</v>
       </c>
       <c r="H13" t="n">
-        <v>19.75284762027187</v>
+        <v>19.75284762027188</v>
       </c>
       <c r="I13" t="n">
-        <v>66.81229031478458</v>
+        <v>66.8122903147846</v>
       </c>
       <c r="J13" t="n">
         <v>157.0735132340023</v>
       </c>
       <c r="K13" t="n">
-        <v>258.1200333201168</v>
+        <v>258.1200333201169</v>
       </c>
       <c r="L13" t="n">
-        <v>330.3047750326442</v>
+        <v>330.3047750326443</v>
       </c>
       <c r="M13" t="n">
-        <v>348.2600731250998</v>
+        <v>348.2600731250999</v>
       </c>
       <c r="N13" t="n">
-        <v>339.9792269857223</v>
+        <v>339.9792269857224</v>
       </c>
       <c r="O13" t="n">
-        <v>314.0258433537699</v>
+        <v>314.02584335377</v>
       </c>
       <c r="P13" t="n">
-        <v>268.7033586299557</v>
+        <v>268.7033586299558</v>
       </c>
       <c r="Q13" t="n">
-        <v>186.0362775361187</v>
+        <v>186.0362775361188</v>
       </c>
       <c r="R13" t="n">
-        <v>99.89528050088403</v>
+        <v>99.89528050088407</v>
       </c>
       <c r="S13" t="n">
-        <v>38.71800499801752</v>
+        <v>38.71800499801753</v>
       </c>
       <c r="T13" t="n">
-        <v>9.492677281725737</v>
+        <v>9.49267728172574</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1211831142347968</v>
+        <v>0.1211831142347969</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>420.7661933823239</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
         <v>740.1323715504302</v>
@@ -32090,10 +32090,10 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>413.7326212867942</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32315,10 +32315,10 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>270.9138770698936</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M18" t="n">
         <v>740.1323715504302</v>
@@ -32327,10 +32327,10 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>557.7961431982454</v>
+        <v>413.7326212867942</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377427</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122284</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I20" t="n">
-        <v>210.475889570406</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874066</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830432</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364266</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293311</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N20" t="n">
-        <v>974.145364522961</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086955</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687526</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148608</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R20" t="n">
         <v>342.9428985987163</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854258</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
         <v>23.8987927266572</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4367569201901941</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540906</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
         <v>28.21138103088191</v>
@@ -32552,22 +32552,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>420.7661933823235</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504303</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N21" t="n">
-        <v>759.721473092764</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426206</v>
+        <v>571.4938338238237</v>
       </c>
       <c r="P21" t="n">
-        <v>557.7961431982455</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32582,7 +32582,7 @@
         <v>11.77395965821093</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013755</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,34 +32622,34 @@
         <v>2.448926481291843</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548568</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284928</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J22" t="n">
         <v>173.1391022273333</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900887</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>364.088578864062</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265023</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416876</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465964</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282425</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561743</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R22" t="n">
         <v>110.1126397860859</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>169.2687847673334</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>332.9841464938401</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>669.5976799347666</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>667.8124403339916</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>255.6522884173741</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>197.6412480909875</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34451,19 +34451,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,19 +34699,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="M2" t="n">
         <v>33.93991247395533</v>
       </c>
       <c r="N2" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>32.56860287904804</v>
@@ -34781,19 +34781,19 @@
         <v>33.93991247395533</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>32.56860287904802</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>33.93991247395533</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>32.56860287904804</v>
       </c>
       <c r="Q3" t="n">
         <v>33.93991247395533</v>
@@ -34936,16 +34936,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>31.71334579105918</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>38.48106384277808</v>
+        <v>36.92627338448402</v>
       </c>
       <c r="O5" t="n">
         <v>38.48106384277808</v>
@@ -34954,7 +34954,7 @@
         <v>38.48106384277808</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.212927593424824</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K6" t="n">
         <v>38.48106384277808</v>
@@ -35021,13 +35021,13 @@
         <v>38.48106384277808</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>30.55594983196189</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>36.92627338448403</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2.538153268411151</v>
+        <v>171.6347684404855</v>
       </c>
       <c r="K8" t="n">
-        <v>55.05506233227828</v>
+        <v>114.2866234452922</v>
       </c>
       <c r="L8" t="n">
-        <v>105.5751800520288</v>
+        <v>105.5751800520299</v>
       </c>
       <c r="M8" t="n">
-        <v>149.4620607188931</v>
+        <v>149.4620607188943</v>
       </c>
       <c r="N8" t="n">
-        <v>156.5409256229701</v>
+        <v>156.5409256229713</v>
       </c>
       <c r="O8" t="n">
-        <v>134.3471962317246</v>
+        <v>134.3471962317257</v>
       </c>
       <c r="P8" t="n">
-        <v>233.088473334912</v>
+        <v>79.81272793441462</v>
       </c>
       <c r="Q8" t="n">
-        <v>86.32912568408987</v>
+        <v>11.27669479949719</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>108.5948158197997</v>
       </c>
       <c r="K9" t="n">
-        <v>49.04044148134815</v>
+        <v>49.04044148134869</v>
       </c>
       <c r="L9" t="n">
-        <v>112.7313711493102</v>
+        <v>112.731371149311</v>
       </c>
       <c r="M9" t="n">
-        <v>153.8970538322308</v>
+        <v>151.104585029179</v>
       </c>
       <c r="N9" t="n">
-        <v>169.6580605527581</v>
+        <v>169.658060552759</v>
       </c>
       <c r="O9" t="n">
-        <v>132.759742438809</v>
+        <v>132.7597424388099</v>
       </c>
       <c r="P9" t="n">
-        <v>87.02304787210204</v>
+        <v>87.02304787210269</v>
       </c>
       <c r="Q9" t="n">
-        <v>217.8264599187496</v>
+        <v>112.0241129020007</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>90.45691967047118</v>
+        <v>90.45691967047151</v>
       </c>
       <c r="L10" t="n">
-        <v>171.8410216305332</v>
+        <v>171.8410216305337</v>
       </c>
       <c r="M10" t="n">
-        <v>191.6763271521092</v>
+        <v>191.6763271521096</v>
       </c>
       <c r="N10" t="n">
-        <v>192.6082040473138</v>
+        <v>192.6082040473142</v>
       </c>
       <c r="O10" t="n">
-        <v>161.7267747016229</v>
+        <v>161.7267747016233</v>
       </c>
       <c r="P10" t="n">
-        <v>114.6269300432576</v>
+        <v>114.626930043258</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>239.323399224684</v>
+        <v>239.3233992246842</v>
       </c>
       <c r="K11" t="n">
-        <v>409.9347657778105</v>
+        <v>409.9347657778107</v>
       </c>
       <c r="L11" t="n">
-        <v>545.8348327861725</v>
+        <v>545.8348327861727</v>
       </c>
       <c r="M11" t="n">
-        <v>639.3357533390424</v>
+        <v>639.3357533390426</v>
       </c>
       <c r="N11" t="n">
-        <v>654.3412867368911</v>
+        <v>654.3412867368913</v>
       </c>
       <c r="O11" t="n">
-        <v>604.4059612752741</v>
+        <v>604.4059612752744</v>
       </c>
       <c r="P11" t="n">
-        <v>480.9970087051994</v>
+        <v>480.9970087051997</v>
       </c>
       <c r="Q11" t="n">
-        <v>312.5493819290325</v>
+        <v>312.5493819290326</v>
       </c>
       <c r="R11" t="n">
-        <v>95.53566605363636</v>
+        <v>95.53566605363648</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>123.5314508296181</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>290.0791926667308</v>
+        <v>290.0791926667309</v>
       </c>
       <c r="L12" t="n">
-        <v>436.8377181475004</v>
+        <v>436.8377181475007</v>
       </c>
       <c r="M12" t="n">
-        <v>523.7912771195438</v>
+        <v>529.3214048672844</v>
       </c>
       <c r="N12" t="n">
-        <v>557.8851541927072</v>
+        <v>187.9747904743798</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>487.9116868002035</v>
       </c>
       <c r="P12" t="n">
-        <v>372.0637939706215</v>
+        <v>372.0637939706216</v>
       </c>
       <c r="Q12" t="n">
-        <v>198.2913623260239</v>
+        <v>198.2913623260241</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.71433311732949</v>
+        <v>63.71433311732955</v>
       </c>
       <c r="K13" t="n">
-        <v>235.850541494234</v>
+        <v>235.8505414942341</v>
       </c>
       <c r="L13" t="n">
-        <v>357.8948002929603</v>
+        <v>357.8948002929604</v>
       </c>
       <c r="M13" t="n">
-        <v>387.8439500869404</v>
+        <v>387.8439500869405</v>
       </c>
       <c r="N13" t="n">
-        <v>384.1113993649509</v>
+        <v>384.111399364951</v>
       </c>
       <c r="O13" t="n">
-        <v>338.6109712678095</v>
+        <v>338.6109712678096</v>
       </c>
       <c r="P13" t="n">
-        <v>265.9819178948492</v>
+        <v>265.9819178948493</v>
       </c>
       <c r="Q13" t="n">
-        <v>99.8742342844243</v>
+        <v>99.87423428442439</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>282.2118136024497</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
         <v>597.9983376284119</v>
@@ -35738,10 +35738,10 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>279.758213872464</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642057</v>
+        <v>262.251239364206</v>
       </c>
       <c r="L16" t="n">
         <v>391.678604124378</v>
@@ -35963,10 +35963,10 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>133.0724380955346</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M18" t="n">
         <v>597.9983376284119</v>
@@ -35975,10 +35975,10 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O18" t="n">
-        <v>552.4004797981761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839152</v>
+        <v>279.758213872464</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607203</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380627</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L20" t="n">
         <v>625.7775560664393</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020584</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N20" t="n">
         <v>744.73230092637</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870087</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P20" t="n">
         <v>553.844392613483</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404113</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R20" t="n">
         <v>127.3573607845842</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>282.2118136024494</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M21" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094307</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O21" t="n">
-        <v>552.4004797981762</v>
+        <v>428.8975893793793</v>
       </c>
       <c r="P21" t="n">
-        <v>423.8217357839153</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066055</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642058</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L22" t="n">
-        <v>391.6786041243781</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
         <v>423.4642343883428</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209162</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
         <v>370.729754560636</v>
       </c>
       <c r="P22" t="n">
-        <v>293.465085693136</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q22" t="n">
         <v>118.9021551044799</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>27.13475084531504</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>199.0097390795098</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>527.4636460127482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>525.6784064119734</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902961</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>57.65947400496596</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,19 +38099,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
